--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 MS.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>Course</t>
   </si>
@@ -73,10 +73,10 @@
     <t>COHN W</t>
   </si>
   <si>
-    <t>99.40%</t>
-  </si>
-  <si>
-    <t>0.60%</t>
+    <t>99.69%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
   </si>
   <si>
     <t>AERS-202</t>
@@ -85,10 +85,13 @@
     <t>ROWLEY M</t>
   </si>
   <si>
-    <t>82.05%</t>
-  </si>
-  <si>
-    <t>17.95%</t>
+    <t>81.73%</t>
+  </si>
+  <si>
+    <t>17.31%</t>
+  </si>
+  <si>
+    <t>0.96%</t>
   </si>
   <si>
     <t>SISSON S</t>
@@ -157,16 +160,16 @@
     <t>REID M</t>
   </si>
   <si>
-    <t>59.35%</t>
-  </si>
-  <si>
-    <t>34.19%</t>
-  </si>
-  <si>
-    <t>3.87%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
+    <t>60.70%</t>
+  </si>
+  <si>
+    <t>34.06%</t>
+  </si>
+  <si>
+    <t>3.49%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
   </si>
   <si>
     <t>MLSC-322</t>
@@ -190,10 +193,178 @@
     <t>MLSC-422</t>
   </si>
   <si>
-    <t>41.94%</t>
-  </si>
-  <si>
-    <t>45.16%</t>
+    <t>36.78%</t>
+  </si>
+  <si>
+    <t>48.28%</t>
+  </si>
+  <si>
+    <t>9.20%</t>
+  </si>
+  <si>
+    <t>2.30%</t>
+  </si>
+  <si>
+    <t>MLSC-485</t>
+  </si>
+  <si>
+    <t>BROWN L</t>
+  </si>
+  <si>
+    <t>NVSC-205</t>
+  </si>
+  <si>
+    <t>HAYNIE D</t>
+  </si>
+  <si>
+    <t>39.58%</t>
+  </si>
+  <si>
+    <t>60.42%</t>
+  </si>
+  <si>
+    <t>GARCIA O</t>
+  </si>
+  <si>
+    <t>67.92%</t>
+  </si>
+  <si>
+    <t>20.75%</t>
+  </si>
+  <si>
+    <t>7.55%</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>ADAMS G</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>48.96%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>NVSC-301</t>
+  </si>
+  <si>
+    <t>CANTRELL D</t>
+  </si>
+  <si>
+    <t>65.52%</t>
+  </si>
+  <si>
+    <t>22.41%</t>
+  </si>
+  <si>
+    <t>8.62%</t>
+  </si>
+  <si>
+    <t>MANSELL H</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>36.00%</t>
+  </si>
+  <si>
+    <t>16.00%</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>NVSC-303</t>
+  </si>
+  <si>
+    <t>KRAUS J</t>
+  </si>
+  <si>
+    <t>69.70%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>CASEY C</t>
+  </si>
+  <si>
+    <t>59.65%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>7.02%</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
+    <t>NVSC-401</t>
+  </si>
+  <si>
+    <t>TENNIS M</t>
+  </si>
+  <si>
+    <t>58.33%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>NVSC-402</t>
+  </si>
+  <si>
+    <t>TIMONEY P</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
+  </si>
+  <si>
+    <t>NVSC-485</t>
+  </si>
+  <si>
+    <t>GENETTI A</t>
+  </si>
+  <si>
+    <t>SOMS-111</t>
+  </si>
+  <si>
+    <t>SIMPSON M</t>
+  </si>
+  <si>
+    <t>90.24%</t>
+  </si>
+  <si>
+    <t>4.88%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>POWELL L</t>
+  </si>
+  <si>
+    <t>70.97%</t>
+  </si>
+  <si>
+    <t>19.35%</t>
   </si>
   <si>
     <t>6.45%</t>
@@ -202,150 +373,63 @@
     <t>3.23%</t>
   </si>
   <si>
-    <t>MLSC-485</t>
-  </si>
-  <si>
-    <t>BROWN L</t>
-  </si>
-  <si>
-    <t>NVSC-205</t>
-  </si>
-  <si>
-    <t>HAYNIE D</t>
-  </si>
-  <si>
-    <t>39.58%</t>
-  </si>
-  <si>
-    <t>60.42%</t>
-  </si>
-  <si>
-    <t>ADAMS G</t>
-  </si>
-  <si>
-    <t>41.67%</t>
-  </si>
-  <si>
-    <t>48.96%</t>
-  </si>
-  <si>
-    <t>9.38%</t>
-  </si>
-  <si>
-    <t>GARCIA O</t>
-  </si>
-  <si>
-    <t>67.92%</t>
-  </si>
-  <si>
-    <t>20.75%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>1.89%</t>
-  </si>
-  <si>
-    <t>NVSC-401</t>
-  </si>
-  <si>
-    <t>TENNIS M</t>
-  </si>
-  <si>
-    <t>58.33%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>NVSC-402</t>
-  </si>
-  <si>
-    <t>TIMONEY P</t>
-  </si>
-  <si>
-    <t>57.14%</t>
-  </si>
-  <si>
-    <t>42.86%</t>
-  </si>
-  <si>
-    <t>NVSC-485</t>
-  </si>
-  <si>
-    <t>CANTRELL D</t>
-  </si>
-  <si>
-    <t>GENETTI A</t>
-  </si>
-  <si>
-    <t>SOMS-111</t>
-  </si>
-  <si>
-    <t>SIMPSON M</t>
-  </si>
-  <si>
-    <t>90.24%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>POWELL L</t>
-  </si>
-  <si>
-    <t>70.97%</t>
-  </si>
-  <si>
-    <t>19.35%</t>
-  </si>
-  <si>
     <t>SOMS-180</t>
   </si>
   <si>
+    <t>MATTE J</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
     <t>IVEY C</t>
   </si>
   <si>
-    <t>85.42%</t>
-  </si>
-  <si>
-    <t>12.50%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
+    <t>86.59%</t>
+  </si>
+  <si>
+    <t>12.20%</t>
+  </si>
+  <si>
+    <t>1.22%</t>
+  </si>
+  <si>
+    <t>STARNES G</t>
+  </si>
+  <si>
+    <t>94.64%</t>
+  </si>
+  <si>
+    <t>5.36%</t>
+  </si>
+  <si>
+    <t>BYRNE W</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>PARKS L</t>
   </si>
   <si>
     <t>HOFFMAN J</t>
   </si>
   <si>
-    <t>90.63%</t>
+    <t>92.19%</t>
+  </si>
+  <si>
+    <t>4.69%</t>
   </si>
   <si>
     <t>3.13%</t>
   </si>
   <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>STARNES G</t>
-  </si>
-  <si>
-    <t>94.64%</t>
-  </si>
-  <si>
-    <t>5.36%</t>
-  </si>
-  <si>
-    <t>PARKS L</t>
-  </si>
-  <si>
     <t>DULKE M</t>
   </si>
   <si>
@@ -358,6 +442,18 @@
     <t>7.81%</t>
   </si>
   <si>
+    <t>PARKER C</t>
+  </si>
+  <si>
+    <t>84.31%</t>
+  </si>
+  <si>
+    <t>11.76%</t>
+  </si>
+  <si>
+    <t>3.92%</t>
+  </si>
+  <si>
     <t>HAWES S</t>
   </si>
   <si>
@@ -376,18 +472,6 @@
     <t>2.22%</t>
   </si>
   <si>
-    <t>PARKER C</t>
-  </si>
-  <si>
-    <t>86.76%</t>
-  </si>
-  <si>
-    <t>8.82%</t>
-  </si>
-  <si>
-    <t>4.41%</t>
-  </si>
-  <si>
     <t>SOMS-280</t>
   </si>
   <si>
@@ -403,13 +487,10 @@
     <t>10.34%</t>
   </si>
   <si>
-    <t>2.30%</t>
-  </si>
-  <si>
     <t>FELTS T</t>
   </si>
   <si>
-    <t>58.06%</t>
+    <t>60.00%</t>
   </si>
   <si>
     <t>GARDNER J</t>
@@ -427,13 +508,13 @@
     <t>MOSER J</t>
   </si>
   <si>
-    <t>63.29%</t>
-  </si>
-  <si>
-    <t>31.65%</t>
-  </si>
-  <si>
-    <t>5.06%</t>
+    <t>68.91%</t>
+  </si>
+  <si>
+    <t>27.73%</t>
+  </si>
+  <si>
+    <t>3.36%</t>
   </si>
   <si>
     <t>HAUFFE F</t>
@@ -475,6 +556,18 @@
     <t>15.79%</t>
   </si>
   <si>
+    <t>STURTEVANT K</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>OTHOLD L</t>
   </si>
   <si>
@@ -496,6 +589,15 @@
     <t>30.00%</t>
   </si>
   <si>
+    <t>BOGUE P</t>
+  </si>
+  <si>
+    <t>64.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
     <t>WENTLING D</t>
   </si>
   <si>
@@ -511,6 +613,21 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>POWERS T</t>
+  </si>
+  <si>
+    <t>92.59%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
     <t>MORRIS S</t>
   </si>
   <si>
@@ -523,24 +640,6 @@
     <t>5.26%</t>
   </si>
   <si>
-    <t>POWERS T</t>
-  </si>
-  <si>
-    <t>92.59%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>PRESTON T</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
     <t>SOMS-482</t>
   </si>
   <si>
@@ -559,6 +658,18 @@
     <t>CHABOT B</t>
   </si>
   <si>
+    <t>RANDOLPH D</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>EDWARDS S</t>
   </si>
   <si>
@@ -571,16 +682,19 @@
     <t>3.33%</t>
   </si>
   <si>
-    <t>RANDOLPH D</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>17.86%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
+    <t>AUCKERMAN C</t>
+  </si>
+  <si>
+    <t>ARCAK C</t>
+  </si>
+  <si>
+    <t>53.23%</t>
+  </si>
+  <si>
+    <t>30.65%</t>
+  </si>
+  <si>
+    <t>9.68%</t>
   </si>
   <si>
     <t>MOONEY K</t>
@@ -590,18 +704,6 @@
   </si>
   <si>
     <t>2.27%</t>
-  </si>
-  <si>
-    <t>AUCKERMAN C</t>
-  </si>
-  <si>
-    <t>ARCAK C</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
   </si>
   <si>
     <t>SOMS-485</t>
@@ -950,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +1147,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>3.9597</v>
+        <v>3.9758</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1073,7 +1175,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>3.8177</v>
+        <v>3.8055</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1082,7 +1184,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1093,19 +1195,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>3.7073</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1116,21 +1218,21 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>3.928</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1144,7 +1246,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1155,10 +1257,10 @@
         <v>3.7297</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1167,12 +1269,12 @@
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1183,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1200,27 +1302,27 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
         <v>3.5389</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1228,102 +1330,102 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>3.5502</v>
+        <v>3.5641</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
         <v>3.48</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
-        <v>3.194</v>
+        <v>3.142</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1340,21 +1442,21 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="n">
         <v>3.396</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1368,203 +1470,203 @@
     </row>
     <row r="39" spans="1:8">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" t="n">
-        <v>3.323</v>
+        <v>3.495</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" t="n">
-        <v>3.495</v>
+        <v>3.323</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="n">
+        <v>3.4985</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="n">
         <v>3.5</v>
       </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3.572</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>89</v>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.7942</v>
-      </c>
-      <c r="D53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" t="s">
-        <v>93</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>93</v>
+      <c r="A53" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C54" t="n">
-        <v>3.5787</v>
+        <v>3.572</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -1572,21 +1674,21 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C57" t="n">
-        <v>3.7645</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -1595,24 +1697,24 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C58" t="n">
-        <v>3.844</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -1621,50 +1723,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" t="s">
-        <v>108</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="60" spans="1:8">
-      <c r="B60" t="s">
+      <c r="A60" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1672,7 +1733,7 @@
         <v>110</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5165</v>
+        <v>3.7942</v>
       </c>
       <c r="D61" t="s">
         <v>111</v>
@@ -1687,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1695,96 +1756,96 @@
         <v>114</v>
       </c>
       <c r="C62" t="n">
-        <v>3.968</v>
+        <v>3.5787</v>
       </c>
       <c r="D62" t="s">
         <v>115</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.8315</v>
-      </c>
-      <c r="D63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-      <c r="C64" t="n">
-        <v>3.842</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D65" t="s">
         <v>121</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>122</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" t="s">
         <v>123</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
+      <c r="C66" t="n">
+        <v>3.8037</v>
+      </c>
+      <c r="D66" t="s">
         <v>124</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>3.317</v>
+        <v>3.94</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -1792,13 +1853,13 @@
         <v>130</v>
       </c>
       <c r="C68" t="n">
-        <v>3.5925</v>
+        <v>3.818</v>
       </c>
       <c r="D68" t="s">
         <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -1812,19 +1873,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" t="n">
-        <v>3.4335</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -1835,19 +1896,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.891</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
         <v>136</v>
       </c>
-      <c r="C70" t="n">
-        <v>3.589</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="E70" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" t="s">
-        <v>139</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -1858,19 +1919,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.5165</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
         <v>140</v>
       </c>
-      <c r="C71" t="n">
-        <v>3.844</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="E71" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -1881,162 +1942,162 @@
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.8163</v>
+      </c>
+      <c r="D72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" t="n">
-        <v>3.819</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>144</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>145</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="G72" t="s">
+      <c r="C73" t="n">
+        <v>3.968</v>
+      </c>
+      <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="H72" t="s">
-        <v>147</v>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
+      <c r="C74" t="n">
+        <v>3.8315</v>
+      </c>
+      <c r="D74" t="s">
         <v>149</v>
       </c>
-      <c r="C75" t="n">
-        <v>3.579</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E74" t="s">
         <v>150</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F74" t="s">
         <v>151</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
         <v>152</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.292</v>
-      </c>
-      <c r="D76" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76" t="s">
-        <v>155</v>
-      </c>
-      <c r="F76" t="s">
-        <v>156</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C77" t="n">
-        <v>3.7065</v>
+        <v>3.317</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>3.511</v>
+        <v>3.6057</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>3.263</v>
+        <v>3.4335</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>3.8885</v>
+        <v>3.6593</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -2047,70 +2108,70 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.844</v>
+      </c>
+      <c r="D81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.819</v>
+      </c>
+      <c r="D82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" t="s">
         <v>172</v>
       </c>
-      <c r="C81" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="D81" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F82" t="s">
         <v>173</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G82" t="s">
         <v>174</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+      <c r="H82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="B84" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.1415</v>
-      </c>
-      <c r="D84" t="s">
-        <v>177</v>
-      </c>
-      <c r="E84" t="s">
-        <v>80</v>
-      </c>
-      <c r="F84" t="s">
-        <v>178</v>
-      </c>
-      <c r="G84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H84" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="B85" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3.579</v>
       </c>
       <c r="D85" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -2121,36 +2182,36 @@
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D86" t="s">
         <v>181</v>
       </c>
-      <c r="C86" t="n">
-        <v>3.533</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
         <v>182</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
         <v>183</v>
-      </c>
-      <c r="F86" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.292</v>
+      </c>
+      <c r="D87" t="s">
         <v>185</v>
-      </c>
-      <c r="C87" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D87" t="s">
-        <v>154</v>
       </c>
       <c r="E87" t="s">
         <v>186</v>
@@ -2159,7 +2220,7 @@
         <v>187</v>
       </c>
       <c r="G87" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -2167,42 +2228,42 @@
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.7065</v>
+      </c>
+      <c r="D88" t="s">
         <v>189</v>
       </c>
-      <c r="C88" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>190</v>
       </c>
-      <c r="E88" t="s">
-        <v>173</v>
-      </c>
       <c r="F88" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="D89" t="s">
         <v>192</v>
       </c>
-      <c r="C89" t="n">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>38</v>
-      </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -2213,53 +2274,288 @@
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C90" t="n">
-        <v>3.4</v>
+        <v>3.511</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="F90" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.8885</v>
+      </c>
+      <c r="D91" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>196</v>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C93" t="n">
+        <v>3.263</v>
+      </c>
+      <c r="D93" t="s">
+        <v>205</v>
+      </c>
+      <c r="E93" t="s">
+        <v>206</v>
+      </c>
+      <c r="F93" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.1415</v>
+      </c>
+      <c r="D96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" t="s">
+        <v>211</v>
+      </c>
+      <c r="G96" t="s">
+        <v>212</v>
+      </c>
+      <c r="H96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" t="s">
+        <v>217</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.533</v>
+      </c>
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" t="s">
+        <v>221</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.2583</v>
+      </c>
+      <c r="D101" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" t="s">
+        <v>225</v>
+      </c>
+      <c r="F101" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>203</v>
+      </c>
+      <c r="F102" t="s">
+        <v>229</v>
+      </c>
+      <c r="G102" t="s">
+        <v>229</v>
+      </c>
+      <c r="H102" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="n">
         <v>3.827</v>
       </c>
-      <c r="D93" t="s">
-        <v>198</v>
-      </c>
-      <c r="E93" t="s">
-        <v>199</v>
-      </c>
-      <c r="F93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>199</v>
+      <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2013/Output/Spring2013 MS.xlsx
+++ b/GradeDistributionsDB/Spring2013/Output/Spring2013 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-102</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
     <t>1.54%</t>
   </si>
   <si>
+    <t>0.76%</t>
+  </si>
+  <si>
     <t>MLSC-422</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>2.30%</t>
   </si>
   <si>
+    <t>2.25%</t>
+  </si>
+  <si>
     <t>MLSC-485</t>
   </si>
   <si>
@@ -238,6 +247,9 @@
     <t>1.89%</t>
   </si>
   <si>
+    <t>1.85%</t>
+  </si>
+  <si>
     <t>ADAMS G</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>8.62%</t>
   </si>
   <si>
+    <t>1.69%</t>
+  </si>
+  <si>
     <t>MANSELL H</t>
   </si>
   <si>
@@ -310,6 +325,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>3.39%</t>
+  </si>
+  <si>
     <t>NVSC-401</t>
   </si>
   <si>
@@ -343,6 +361,9 @@
     <t>GENETTI A</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>SOMS-111</t>
   </si>
   <si>
@@ -517,6 +538,9 @@
     <t>3.36%</t>
   </si>
   <si>
+    <t>0.83%</t>
+  </si>
+  <si>
     <t>HAUFFE F</t>
   </si>
   <si>
@@ -613,6 +637,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>2.00%</t>
+  </si>
+  <si>
     <t>POWERS T</t>
   </si>
   <si>
@@ -622,6 +649,9 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>PRESTON T</t>
   </si>
   <si>
@@ -655,6 +685,9 @@
     <t>1.96%</t>
   </si>
   <si>
+    <t>1.92%</t>
+  </si>
+  <si>
     <t>CHABOT B</t>
   </si>
   <si>
@@ -667,9 +700,6 @@
     <t>17.86%</t>
   </si>
   <si>
-    <t>3.57%</t>
-  </si>
-  <si>
     <t>EDWARDS S</t>
   </si>
   <si>
@@ -706,6 +736,9 @@
     <t>2.27%</t>
   </si>
   <si>
+    <t>6.38%</t>
+  </si>
+  <si>
     <t>SOMS-485</t>
   </si>
   <si>
@@ -713,9 +746,6 @@
   </si>
   <si>
     <t>92.31%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
   </si>
 </sst>
 </file>
@@ -753,12 +783,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1052,15 +1081,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,1477 +1114,1657 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.986</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
         <v>3.949</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>3.9758</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>3.8055</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>3.7073</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
         <v>3.928</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>3.7297</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
         <v>3.5389</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
         <v>3.5641</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="n">
         <v>3.48</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="n">
         <v>3.142</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" t="n">
         <v>3.396</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C39" t="n">
         <v>3.495</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" t="n">
         <v>3.323</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C43" t="n">
         <v>3.4985</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" t="n">
         <v>3.08</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C47" t="n">
         <v>3.667</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n">
         <v>3.451</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
         <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n">
         <v>3.572</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C57" t="n">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C61" t="n">
         <v>3.7942</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C62" t="n">
         <v>3.5787</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C65" t="n">
         <v>3.692</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C66" t="n">
         <v>3.8037</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C67" t="n">
         <v>3.94</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C68" t="n">
         <v>3.818</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C70" t="n">
         <v>3.891</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C71" t="n">
         <v>3.5165</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C72" t="n">
         <v>3.8163</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" t="n">
         <v>3.968</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C74" t="n">
         <v>3.8315</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C77" t="n">
         <v>3.317</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C78" t="n">
         <v>3.6057</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C79" t="n">
         <v>3.4335</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C80" t="n">
         <v>3.6593</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C81" t="n">
         <v>3.844</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C82" t="n">
         <v>3.819</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F82" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G82" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>182</v>
+      </c>
+      <c r="I82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C85" t="n">
         <v>3.579</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F85" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C86" t="n">
         <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C87" t="n">
         <v>3.292</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F87" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C88" t="n">
         <v>3.7065</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C89" t="n">
         <v>3.48</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C90" t="n">
         <v>3.511</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I90" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C91" t="n">
         <v>3.8885</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C92" t="n">
         <v>3.65</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C93" t="n">
         <v>3.263</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F93" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C96" t="n">
         <v>3.1415</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G96" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>221</v>
+      </c>
+      <c r="I96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="B97" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C97" t="n">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C98" t="n">
         <v>3.25</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F98" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C99" t="n">
         <v>3.533</v>
       </c>
       <c r="D99" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F99" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="B100" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C100" t="n">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C101" t="n">
         <v>3.2583</v>
       </c>
       <c r="D101" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E101" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C102" t="n">
         <v>3.545</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F102" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="H102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I102" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C105" t="n">
         <v>3.827</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="I105" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
